--- a/biology/Botanique/Peronospora_trifoliorum/Peronospora_trifoliorum.xlsx
+++ b/biology/Botanique/Peronospora_trifoliorum/Peronospora_trifoliorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peronospora trifoliorum est une espèce de pseudo-champignons oomycètes de la famille des Peronosporaceae. Ce champignon phytopathogène est responsable de mildious attaquant diverses espèces de Fabaceae fourragères, trèfle, luzerne, mélilot.
 </t>
@@ -511,11 +523,13 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie se manifeste par des infections localisées sous forme de taches chlorotiques sur les folioles, taches qui finissent par recouvrir la totalité du limbe. Les folioles infectées se courbent, les bords s'enroulant vers le bas.
 Une infection systémique atteint les tiges qui lorsqu'elles sont infectées tendent à s'épaissir et à raccourcir leurs entrenœuds, produisant une croissance en rosette touffue à leur sommet.
-Le signe révélateur du mildiou est la production à la face inférieure des folioles d'un duvet blanc-grisâtre, constitué par des masses d'oospores (sporangiophores et sporanges), qui servent par la suite d'inoculum pour une expansion secondaire du champignon[2],[3].
+Le signe révélateur du mildiou est la production à la face inférieure des folioles d'un duvet blanc-grisâtre, constitué par des masses d'oospores (sporangiophores et sporanges), qui servent par la suite d'inoculum pour une expansion secondaire du champignon,.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (3 décembre 2014)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (3 décembre 2014) :
 Peronospora fulva Syd. 1923 ;
 Peronospora lentis Gäum. 1923 ; 	
 Peronospora lotorum Syd. 1923 ; 	
@@ -575,8 +594,43 @@
 Peronospora trifoliorum f. trifolii-rubentis Czerepan. 1977 ; 	
 Peronospora trifoliorum var. trifoliorum de Bary 1863 ; 	
 Peronospora trifoliorum f. trifoliorum de Bary 1863.
-Liste des formes
-Selon NCBI  (3 décembre 2014)[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Peronospora_trifoliorum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peronospora_trifoliorum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des formes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (3 décembre 2014) :
 forme Peronospora trifoliorum f. trifolii-pratensis</t>
         </is>
       </c>
